--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value896.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value896.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.5643546227849</v>
+        <v>2.449521780014038</v>
       </c>
       <c r="B1">
-        <v>2.232634189278537</v>
+        <v>2.794248342514038</v>
       </c>
       <c r="C1">
-        <v>2.533899683216297</v>
+        <v>1.673259258270264</v>
       </c>
       <c r="D1">
-        <v>2.93050856645149</v>
+        <v>1.358235716819763</v>
       </c>
       <c r="E1">
-        <v>2.507541996523941</v>
+        <v>1.266934752464294</v>
       </c>
     </row>
   </sheetData>
